--- a/R_ice_camp/GE_IC_clarence_colors.xlsx
+++ b/R_ice_camp/GE_IC_clarence_colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarencesim/Documents/GitHub/SIM_GreenEdge_IceCamp/R_ice_camp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0102D594-F202-AB44-ADB9-C9B367F1DDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710BE665-0402-0640-AB85-7595EB48861E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="5" xr2:uid="{C82C6348-593F-2744-A17B-23CA1ACF9DB4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="3" xr2:uid="{C82C6348-593F-2744-A17B-23CA1ACF9DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="division" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="280">
   <si>
     <t>species</t>
   </si>
@@ -604,12 +604,6 @@
     <t>mediumseagreen</t>
   </si>
   <si>
-    <t>Pedinophyceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palegreen1 </t>
-  </si>
-  <si>
     <t>Prasino-Clade-V</t>
   </si>
   <si>
@@ -884,6 +878,9 @@
   </si>
   <si>
     <t>#FCCDE5</t>
+  </si>
+  <si>
+    <t>Pavlovophyceae</t>
   </si>
 </sst>
 </file>
@@ -2545,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB275BB-30FF-9848-9078-6E31ED8BAB86}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="A1:D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
@@ -2615,28 +2612,28 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="22" t="s">
-        <v>188</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4" ht="17" thickBot="1">
       <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" thickBot="1">
@@ -2644,13 +2641,13 @@
         <v>29</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>192</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" thickBot="1">
@@ -2658,13 +2655,13 @@
         <v>29</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" thickBot="1">
@@ -2672,13 +2669,13 @@
         <v>29</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>198</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" thickBot="1">
@@ -2703,10 +2700,10 @@
         <v>36</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" thickBot="1">
@@ -2717,10 +2714,10 @@
         <v>18</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" thickBot="1">
@@ -2731,10 +2728,10 @@
         <v>61</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" thickBot="1">
@@ -2742,13 +2739,13 @@
         <v>41</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" thickBot="1">
@@ -2756,13 +2753,13 @@
         <v>41</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" thickBot="1">
@@ -2770,13 +2767,13 @@
         <v>41</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>213</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" thickBot="1">
@@ -2784,13 +2781,13 @@
         <v>41</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" thickBot="1">
@@ -2801,10 +2798,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" thickBot="1">
@@ -2812,13 +2809,13 @@
         <v>41</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>221</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" thickBot="1">
@@ -2826,13 +2823,13 @@
         <v>41</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" thickBot="1">
@@ -2840,13 +2837,13 @@
         <v>130</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>227</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" thickBot="1">
@@ -2854,13 +2851,13 @@
         <v>130</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2868,13 +2865,13 @@
         <v>35</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>233</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2882,27 +2879,27 @@
         <v>29</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>236</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="D25" s="26" t="s">
         <v>240</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2910,13 +2907,13 @@
         <v>41</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2924,13 +2921,13 @@
         <v>35</v>
       </c>
       <c r="B27" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>245</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2938,25 +2935,25 @@
         <v>110</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>248</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="18"/>
       <c r="B29" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>102</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -2966,94 +2963,94 @@
         <v>174</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="18"/>
       <c r="B31" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="18"/>
       <c r="B32" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="18"/>
       <c r="B33" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="18"/>
       <c r="B34" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="18"/>
       <c r="B35" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="18"/>
       <c r="B36" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="18"/>
       <c r="B37" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="26" t="s">
         <v>266</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3062,22 +3059,22 @@
         <v>176</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="18"/>
       <c r="B39" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3086,58 +3083,58 @@
         <v>175</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="18"/>
       <c r="B41" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="18"/>
       <c r="B42" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="18"/>
       <c r="B43" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="18"/>
       <c r="B44" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3222,7 +3219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDEB270-CEAB-104D-996D-855555300F9C}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -3231,7 +3228,7 @@
     <col min="1" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="18" customFormat="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="27" t="s">
         <v>132</v>
       </c>
@@ -3242,7 +3239,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="18" customFormat="1">
+    <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
         <v>133</v>
       </c>
@@ -3253,7 +3250,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="18" customFormat="1">
+    <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
         <v>149</v>
       </c>
@@ -3264,7 +3261,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="18" customFormat="1">
+    <row r="4" spans="1:3">
       <c r="A4" s="25" t="s">
         <v>152</v>
       </c>
@@ -3275,7 +3272,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="18" customFormat="1">
+    <row r="5" spans="1:3">
       <c r="A5" s="25" t="s">
         <v>148</v>
       </c>
@@ -3286,7 +3283,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="18" customFormat="1">
+    <row r="6" spans="1:3">
       <c r="A6" s="25" t="s">
         <v>150</v>
       </c>
@@ -3297,7 +3294,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="18" customFormat="1">
+    <row r="7" spans="1:3">
       <c r="A7" s="25" t="s">
         <v>151</v>
       </c>
@@ -3308,7 +3305,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="18" customFormat="1">
+    <row r="8" spans="1:3">
       <c r="A8" s="25" t="s">
         <v>134</v>
       </c>
@@ -3319,7 +3316,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="18" customFormat="1">
+    <row r="9" spans="1:3">
       <c r="A9" s="25" t="s">
         <v>155</v>
       </c>

--- a/R_ice_camp/GE_IC_clarence_colors.xlsx
+++ b/R_ice_camp/GE_IC_clarence_colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarencesim/Documents/GitHub/SIM_GreenEdge_IceCamp/R_ice_camp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D874EB3E-1C82-DF42-B260-4625FA562D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD9BB60-9C87-F446-BB7C-D3C653866B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="-18380" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{C82C6348-593F-2744-A17B-23CA1ACF9DB4}"/>
+    <workbookView xWindow="7800" yWindow="-19660" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{C82C6348-593F-2744-A17B-23CA1ACF9DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="division" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="189">
   <si>
     <t>species</t>
   </si>
@@ -369,12 +369,6 @@
     <t>Prasinodermophyta</t>
   </si>
   <si>
-    <t>Dinophyceae</t>
-  </si>
-  <si>
-    <t>Spirotrichea</t>
-  </si>
-  <si>
     <t>unassigned_euks</t>
   </si>
   <si>
@@ -387,9 +381,6 @@
     <t>Rhizaria</t>
   </si>
   <si>
-    <t>normalized_proportion</t>
-  </si>
-  <si>
     <t>domain</t>
   </si>
   <si>
@@ -417,21 +408,6 @@
     <t>Bacillariaceae_X</t>
   </si>
   <si>
-    <t>Strombidium_caudispina</t>
-  </si>
-  <si>
-    <t>Ciliophora</t>
-  </si>
-  <si>
-    <t>Oligotrichida</t>
-  </si>
-  <si>
-    <t>Strombidiidae</t>
-  </si>
-  <si>
-    <t>Strombidium</t>
-  </si>
-  <si>
     <t>Haptista</t>
   </si>
   <si>
@@ -444,30 +420,6 @@
     <t>Pseudo-nitzschia_sp.</t>
   </si>
   <si>
-    <t>Oligotrichida_XX_sp.</t>
-  </si>
-  <si>
-    <t>Oligotrichida_X</t>
-  </si>
-  <si>
-    <t>Oligotrichida_XX</t>
-  </si>
-  <si>
-    <t>Prorocentrum_sp.</t>
-  </si>
-  <si>
-    <t>Dinoflagellata</t>
-  </si>
-  <si>
-    <t>Prorocentrales</t>
-  </si>
-  <si>
-    <t>Prorocentraceae</t>
-  </si>
-  <si>
-    <t>Prorocentrum</t>
-  </si>
-  <si>
     <t>Fragilariales</t>
   </si>
   <si>
@@ -597,24 +549,9 @@
     <t>#c7EAE5</t>
   </si>
   <si>
-    <t>#543005</t>
-  </si>
-  <si>
     <t>#8C510A</t>
   </si>
   <si>
-    <t>#F6E8C3</t>
-  </si>
-  <si>
-    <t>Sc</t>
-  </si>
-  <si>
-    <t>Ol</t>
-  </si>
-  <si>
-    <t>Pr</t>
-  </si>
-  <si>
     <t>Bf</t>
   </si>
   <si>
@@ -625,13 +562,58 @@
   </si>
   <si>
     <t>Mp</t>
+  </si>
+  <si>
+    <t>Bacillariophyceae_X</t>
+  </si>
+  <si>
+    <t>Bacillariophyceae_XX</t>
+  </si>
+  <si>
+    <t>Bacillariophyceae_XXX</t>
+  </si>
+  <si>
+    <t>Bacillariophyceae_XXX_sp.</t>
+  </si>
+  <si>
+    <t>Porosira</t>
+  </si>
+  <si>
+    <t>Porosira_sp.</t>
+  </si>
+  <si>
+    <t>Cryptomonadales</t>
+  </si>
+  <si>
+    <t>Cryptomonadales_X</t>
+  </si>
+  <si>
+    <t>Cryptomonadales_XX</t>
+  </si>
+  <si>
+    <t>Cryptomonadales_XX_sp.</t>
+  </si>
+  <si>
+    <t>#FC9272</t>
+  </si>
+  <si>
+    <t>#F7FBFF</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>C6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -725,6 +707,12 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1115,7 +1103,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -1124,7 +1112,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C3" s="7"/>
     </row>
@@ -1148,7 +1136,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>62</v>
@@ -1166,7 +1154,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>74</v>
@@ -1180,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7115E2AA-6E91-8244-A456-59740386880C}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1194,12 +1182,12 @@
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>14</v>
@@ -1208,7 +1196,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>11</v>
@@ -1225,158 +1213,145 @@
       <c r="J1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>115</v>
+      <c r="K1" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="11">
-        <v>10.284519645849</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" s="11">
-        <v>3.7201912816174998</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="16"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="11">
-        <v>3.5407411052464401</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>190</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="N4" s="16"/>
       <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>67</v>
       </c>
@@ -1384,22 +1359,22 @@
         <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>90</v>
@@ -1407,22 +1382,18 @@
       <c r="J5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="11">
-        <v>3.0660716850999998</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K5" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>68</v>
       </c>
@@ -1430,45 +1401,42 @@
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="11">
-        <v>2.4887724924954902</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="14"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>68</v>
       </c>
@@ -1476,45 +1444,41 @@
         <v>18</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="11">
-        <v>9.8348343883278098</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>68</v>
       </c>
@@ -1522,45 +1486,41 @@
         <v>18</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="11">
-        <v>8.8222855101688609</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="O8" s="15"/>
-      <c r="P8" s="14"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="K8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>68</v>
       </c>
@@ -1568,43 +1528,40 @@
         <v>18</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="I9" s="11" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" s="11">
-        <v>14.706451238829199</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>68</v>
       </c>
@@ -1612,43 +1569,40 @@
         <v>18</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K10" s="11">
-        <v>7.1930653773064499</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>68</v>
       </c>
@@ -1656,43 +1610,40 @@
         <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="11">
-        <v>4.7355637756938602</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>68</v>
       </c>
@@ -1700,43 +1651,40 @@
         <v>18</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G12" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="J12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="11">
-        <v>3.5033259971497701</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>68</v>
       </c>
@@ -1744,43 +1692,40 @@
         <v>18</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>145</v>
-      </c>
       <c r="I13" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="11">
-        <v>3.4250091834591601</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>156</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
@@ -1788,43 +1733,40 @@
         <v>18</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
         <v>157</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K14" s="11">
-        <v>1.9611843154916799</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L14" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>68</v>
       </c>
@@ -1832,43 +1774,40 @@
         <v>18</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="K15" s="11">
-        <v>1.8412161140107299</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="K15" t="s">
+        <v>185</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>68</v>
       </c>
@@ -1876,43 +1815,40 @@
         <v>18</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="11">
-        <v>1.7963208804334301</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>184</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>68</v>
       </c>
@@ -1920,45 +1856,42 @@
         <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="11">
-        <v>2.9537736513023201</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="O17" s="15"/>
-      <c r="P17" s="14"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" s="15"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>68</v>
       </c>
@@ -1966,22 +1899,22 @@
         <v>18</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>34</v>
@@ -1989,20 +1922,17 @@
       <c r="J18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="11">
-        <v>2.6544694562647599</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K18" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>68</v>
       </c>
@@ -2010,43 +1940,40 @@
         <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="11">
-        <v>2.5478422896167698</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>68</v>
       </c>
@@ -2054,43 +1981,40 @@
         <v>18</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="K20" s="11">
-        <v>2.04636370628634</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>68</v>
       </c>
@@ -2098,87 +2022,44 @@
         <v>18</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="K21" s="11">
-        <v>1.8623484712156</v>
-      </c>
-      <c r="L21" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="M21" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L22" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G23" s="1"/>
-      <c r="L23" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H31" s="2"/>
+      <c r="K21" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
     <sortCondition ref="F1:F21"/>
   </sortState>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2337,7 +2218,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>62</v>
@@ -2348,7 +2229,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>76</v>
